--- a/workbooks/MCE_Visuals.xlsx
+++ b/workbooks/MCE_Visuals.xlsx
@@ -1,8 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17571"/>
-  <workbookPr hidePivotFieldList="1"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17766"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\development\metro_mce\workbooks\"/>
@@ -35,9 +35,9 @@
   </definedNames>
   <calcPr calcId="171027"/>
   <pivotCaches>
-    <pivotCache cacheId="24" r:id="rId16"/>
-    <pivotCache cacheId="50" r:id="rId17"/>
-    <pivotCache cacheId="59" r:id="rId18"/>
+    <pivotCache cacheId="43" r:id="rId16"/>
+    <pivotCache cacheId="88" r:id="rId17"/>
+    <pivotCache cacheId="94" r:id="rId18"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -156,7 +156,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="92">
   <si>
     <t>BENEFIT</t>
   </si>
@@ -207,9 +207,6 @@
   </si>
   <si>
     <t>Transit</t>
-  </si>
-  <si>
-    <t>ALL</t>
   </si>
   <si>
     <t>Row Labels</t>
@@ -435,6 +432,9 @@
   <si>
     <t>Average of ScenPolicyRank</t>
   </si>
+  <si>
+    <t>EVERYBODY</t>
+  </si>
 </sst>
 </file>
 
@@ -445,7 +445,7 @@
     <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
     <numFmt numFmtId="166" formatCode="0.0000"/>
-    <numFmt numFmtId="173" formatCode="0.0%"/>
+    <numFmt numFmtId="167" formatCode="0.0%"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -541,7 +541,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -554,102 +554,18 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="3" builtinId="5"/>
   </cellStyles>
-  <dxfs count="56">
+  <dxfs count="32">
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt numFmtId="168" formatCode="0.00000000"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt numFmtId="169" formatCode="0.0000000"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="167" formatCode="0.00000000"/>
+      <numFmt numFmtId="170" formatCode="0.000000"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="168" formatCode="0.0000000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="169" formatCode="0.000000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode="0.00000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.0000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="0.00000000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.0000000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="169" formatCode="0.000000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode="0.00000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.0000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="0.00000000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.0000000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="169" formatCode="0.000000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode="0.00000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.0000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="0.00000000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.0000000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="169" formatCode="0.000000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode="0.00000"/>
+      <numFmt numFmtId="171" formatCode="0.00000"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="166" formatCode="0.0000"/>
@@ -670,7 +586,87 @@
       <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="0.0000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="171" formatCode="0.00000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="170" formatCode="0.000000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="169" formatCode="0.0000000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="168" formatCode="0.00000000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="0.0000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <font>
@@ -731,74 +727,6 @@
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.0000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode="0.00000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="169" formatCode="0.000000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.0000000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="0.00000000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.0000"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
         <b/>
         <i val="0"/>
       </font>
@@ -822,8 +750,8 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
-      <tableStyleElement type="wholeTable" dxfId="55"/>
-      <tableStyleElement type="headerRow" dxfId="54"/>
+      <tableStyleElement type="wholeTable" dxfId="31"/>
+      <tableStyleElement type="headerRow" dxfId="30"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -1566,10 +1494,10 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>1.19</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.06</c:v>
+                  <c:v>0.89</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1581,10 +1509,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>8129</c:v>
+                  <c:v>6844.3998733929438</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5780</c:v>
+                  <c:v>4866.6049044422707</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1885,7 +1813,7 @@
           <c:strCache>
             <c:ptCount val="1"/>
             <c:pt idx="0">
-              <c:v>Benefits by Scenario, COC ALL</c:v>
+              <c:v>Benefits by Scenario, COC LOWINC</c:v>
             </c:pt>
           </c:strCache>
         </c:strRef>
@@ -2118,34 +2046,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>600</c:v>
+                  <c:v>252.59195005755726</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>111</c:v>
+                  <c:v>55.570229012662594</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>213</c:v>
+                  <c:v>93.459021521296179</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>600</c:v>
+                  <c:v>168.39463337170483</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>300</c:v>
+                  <c:v>168.39463337170483</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>700</c:v>
+                  <c:v>336.78926674340966</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>340</c:v>
+                  <c:v>117.87624336019339</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>300</c:v>
+                  <c:v>168.39463337170483</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>676</c:v>
+                  <c:v>336.78926674340966</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>222</c:v>
+                  <c:v>101.0367800230229</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2227,34 +2155,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>500</c:v>
+                  <c:v>218.91302338321628</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>80</c:v>
+                  <c:v>42.098658342926207</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>200</c:v>
+                  <c:v>84.197316685852414</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>500</c:v>
+                  <c:v>126.29597502877863</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>200</c:v>
+                  <c:v>84.197316685852414</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>400</c:v>
+                  <c:v>210.49329171463106</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>320</c:v>
+                  <c:v>126.29597502877863</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>600</c:v>
+                  <c:v>336.78926674340966</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>90</c:v>
+                  <c:v>37.888792508633585</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3806,34 +3734,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>200</c:v>
+                  <c:v>168.39463337170483</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>200</c:v>
+                  <c:v>168.39463337170483</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>400</c:v>
+                  <c:v>336.78926674340966</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>140</c:v>
+                  <c:v>117.87624336019339</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>66</c:v>
+                  <c:v>55.570229012662594</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>400</c:v>
+                  <c:v>336.78926674340966</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>120</c:v>
+                  <c:v>101.0367800230229</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>300</c:v>
+                  <c:v>252.59195005755726</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>111</c:v>
+                  <c:v>93.459021521296179</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>200</c:v>
+                  <c:v>168.39463337170483</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4676,6 +4604,12 @@
           <c:symbol val="none"/>
         </c:marker>
       </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="43"/>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
       <c:layout/>
@@ -4692,7 +4626,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>ALL</c:v>
+                  <c:v>LOWINC</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4722,13 +4656,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>1940</c:v>
+                  <c:v>791.45477684701268</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1009</c:v>
+                  <c:v>493.39627577909516</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1113</c:v>
+                  <c:v>514.44560495055828</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4736,6 +4670,118 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-5209-4D3A-B355-414EAD3D37F6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>TotalBenefitsPerScenario!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>LOWENGPRO</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>TotalBenefitsPerScenario!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Economic Vitality</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Environmental Stewardship</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Social &amp; Equity Values</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>TotalBenefitsPerScenario!$E$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>841.97316685852411</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>360.36451541544835</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>422.67052976297913</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-585F-4B3E-9907-CEB92B8B7E41}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>TotalBenefitsPerScenario!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>EVERYBODY</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>TotalBenefitsPerScenario!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Economic Vitality</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Environmental Stewardship</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Social &amp; Equity Values</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>TotalBenefitsPerScenario!$E$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1633.4279437055368</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>849.55092536025086</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>937.11613471353746</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-585F-4B3E-9907-CEB92B8B7E41}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5601,7 +5647,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>TotalBenefitsPerScenarioCOC!$B$4</c:f>
+              <c:f>TotalBenefitsPerScenarioCOC!$E$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5613,27 +5659,27 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>TotalBenefitsPerScenarioCOC!$A$5:$A$13</c:f>
+              <c:f>TotalBenefitsPerScenarioCOC!$E$1</c:f>
               <c:multiLvlStrCache>
                 <c:ptCount val="6"/>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>ALL</c:v>
+                    <c:v>LOWINC</c:v>
                   </c:pt>
                   <c:pt idx="1">
+                    <c:v>LOWENGPRO</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>EVERYBODY</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
                     <c:v>LOWINC</c:v>
                   </c:pt>
-                  <c:pt idx="2">
+                  <c:pt idx="4">
                     <c:v>LOWENGPRO</c:v>
                   </c:pt>
-                  <c:pt idx="3">
-                    <c:v>ALL</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>LOWINC</c:v>
-                  </c:pt>
                   <c:pt idx="5">
-                    <c:v>LOWENGPRO</c:v>
+                    <c:v>EVERYBODY</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
@@ -5649,27 +5695,27 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>TotalBenefitsPerScenarioCOC!$B$5:$B$13</c:f>
+              <c:f>TotalBenefitsPerScenarioCOC!$E$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>1940</c:v>
+                  <c:v>791.45477684701268</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>940</c:v>
+                  <c:v>841.97316685852422</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1000</c:v>
+                  <c:v>1633.4279437055368</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1420</c:v>
+                  <c:v>547.28255845804074</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>650</c:v>
+                  <c:v>648.3193384810636</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>770</c:v>
+                  <c:v>1195.6018969391043</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5863,7 +5909,7 @@
           <c:strCache>
             <c:ptCount val="1"/>
             <c:pt idx="0">
-              <c:v>Benefits by Scenario, COC ALL</c:v>
+              <c:v>Benefits by Scenario, COC LOWINC</c:v>
             </c:pt>
           </c:strCache>
         </c:strRef>
@@ -6584,34 +6630,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>600</c:v>
+                  <c:v>168.39463337170483</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>300</c:v>
+                  <c:v>168.39463337170483</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>700</c:v>
+                  <c:v>336.78926674340966</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>340</c:v>
+                  <c:v>117.87624336019339</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>111</c:v>
+                  <c:v>55.570229012662594</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>676</c:v>
+                  <c:v>336.78926674340966</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>222</c:v>
+                  <c:v>101.0367800230229</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>600</c:v>
+                  <c:v>252.59195005755726</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>213</c:v>
+                  <c:v>93.459021521296179</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>300</c:v>
+                  <c:v>168.39463337170483</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6695,31 +6741,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>500</c:v>
+                  <c:v>126.29597502877863</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>200</c:v>
+                  <c:v>84.197316685852414</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>400</c:v>
+                  <c:v>210.49329171463106</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>320</c:v>
+                  <c:v>126.29597502877863</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>80</c:v>
+                  <c:v>42.098658342926207</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>600</c:v>
+                  <c:v>336.78926674340966</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>90</c:v>
+                  <c:v>37.888792508633585</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>500</c:v>
+                  <c:v>218.91302338321628</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>200</c:v>
+                  <c:v>84.197316685852414</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0</c:v>
@@ -6947,7 +6993,7 @@
           <c:strCache>
             <c:ptCount val="1"/>
             <c:pt idx="0">
-              <c:v>Total Benefits by Scenario, COC ALL</c:v>
+              <c:v>Total Benefits by Scenario, COC LOWINC</c:v>
             </c:pt>
           </c:strCache>
         </c:strRef>
@@ -7631,10 +7677,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>1940</c:v>
+                  <c:v>791.45477684701268</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1420</c:v>
+                  <c:v>547.28255845804074</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7681,10 +7727,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>1009</c:v>
+                  <c:v>493.39627577909516</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>770</c:v>
+                  <c:v>416.77671759496945</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7731,10 +7777,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>1113</c:v>
+                  <c:v>514.44560495055828</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>700</c:v>
+                  <c:v>303.11034006906868</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8199,10 +8245,10 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>1.1919385158769682</c:v>
+                  <c:v>1.0035802469135804</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.0561272071752208</c:v>
+                  <c:v>0.88923076923076949</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8496,7 +8542,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{3A11C41B-DE59-4BF4-827A-70604F3566FB}" type="CELLRANGE">
+                    <a:fld id="{E78EA711-74A1-4064-A825-4D354F1ED3D4}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -8505,7 +8551,7 @@
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:t>, </a:t>
                     </a:r>
-                    <a:fld id="{8A4BFF77-A1A7-47DC-BF9C-D36596F30E26}" type="BUBBLESIZE">
+                    <a:fld id="{497C7442-00C8-4B10-A9E7-B7BD20B63A98}" type="BUBBLESIZE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[BUBBLE SIZE]</a:t>
@@ -8538,7 +8584,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{70111D31-44F9-46E6-8DF7-2B3C95E6928E}" type="CELLRANGE">
+                    <a:fld id="{396BF7BA-793A-4643-A277-05EB1EF211B6}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -8547,7 +8593,7 @@
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:t>, </a:t>
                     </a:r>
-                    <a:fld id="{12AC3403-F214-4303-8498-D0AA7198F4F0}" type="BUBBLESIZE">
+                    <a:fld id="{33395333-6317-4BC6-AA93-AD96A1962FA5}" type="BUBBLESIZE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[BUBBLE SIZE]</a:t>
@@ -8637,10 +8683,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>8129</c:v>
+                  <c:v>6844.3998733929438</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5780</c:v>
+                  <c:v>4866.6049044422707</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8667,10 +8713,10 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>1.19</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.06</c:v>
+                  <c:v>0.89</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12171,69 +12217,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Ben Stabler" refreshedDate="42734.694380324072" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="60">
-  <cacheSource type="worksheet">
-    <worksheetSource name="Benefits"/>
-  </cacheSource>
-  <cacheFields count="6">
-    <cacheField name="SCENARIO" numFmtId="0">
-      <sharedItems count="4">
-        <s v="ALT-A"/>
-        <s v="ALT-B"/>
-        <s v="NB" u="1"/>
-        <s v="RTP" u="1"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="COC" numFmtId="0">
-      <sharedItems count="5">
-        <s v="LOWINC"/>
-        <s v="LOWENGPRO"/>
-        <s v="ALL"/>
-        <s v="A" u="1"/>
-        <s v="B" u="1"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="BENEFIT" numFmtId="0">
-      <sharedItems count="13">
-        <s v="Highway Safety"/>
-        <s v="Travel Time"/>
-        <s v="Travel Time Reliability"/>
-        <s v="Vehicle Operating Costs"/>
-        <s v="Vehicle Ownership Costs"/>
-        <s v="Mobile Source Emissions"/>
-        <s v="Surface Water"/>
-        <s v="Highway Noise"/>
-        <s v="Physical Activity"/>
-        <s v="Travel Options / Choices"/>
-        <s v="Noise" u="1"/>
-        <s v="Emissions" u="1"/>
-        <s v="Safety" u="1"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="TYPE" numFmtId="0">
-      <sharedItems count="3">
-        <s v="Social &amp; Equity Values"/>
-        <s v="Economic Vitality"/>
-        <s v="Environmental Stewardship"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="DOLLARS" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="700"/>
-    </cacheField>
-    <cacheField name="YEAR" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="2040" maxValue="2040"/>
-    </cacheField>
-  </cacheFields>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
-      <x14:pivotCacheDefinition/>
-    </ext>
-  </extLst>
-</pivotCacheDefinition>
-</file>
-
-<file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Ben Stabler" refreshedDate="42734.798868055557" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="6">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Ben Stabler" refreshedDate="42783.607595486108" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="6">
   <cacheSource type="worksheet">
     <worksheetSource name="Costs"/>
   </cacheSource>
@@ -12263,7 +12247,7 @@
         <s v="Road" u="1"/>
       </sharedItems>
     </cacheField>
-    <cacheField name="SCENARIORANK" numFmtId="0">
+    <cacheField name="SCENPOLICYRANK" numFmtId="0">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="3" maxValue="4"/>
     </cacheField>
     <cacheField name="COSTS" numFmtId="0">
@@ -12284,8 +12268,74 @@
 </pivotCacheDefinition>
 </file>
 
+<file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Ben Stabler" refreshedDate="42783.611236226854" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="60">
+  <cacheSource type="worksheet">
+    <worksheetSource name="Benefits"/>
+  </cacheSource>
+  <cacheFields count="7">
+    <cacheField name="SCENARIO" numFmtId="0">
+      <sharedItems count="4">
+        <s v="ALT-A"/>
+        <s v="ALT-B"/>
+        <s v="NB" u="1"/>
+        <s v="RTP" u="1"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="COC" numFmtId="0">
+      <sharedItems count="6">
+        <s v="LOWINC"/>
+        <s v="LOWENGPRO"/>
+        <s v="EVERYBODY"/>
+        <s v="ALL" u="1"/>
+        <s v="A" u="1"/>
+        <s v="B" u="1"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="BENEFIT" numFmtId="0">
+      <sharedItems count="13">
+        <s v="Highway Safety"/>
+        <s v="Travel Time"/>
+        <s v="Travel Time Reliability"/>
+        <s v="Vehicle Operating Costs"/>
+        <s v="Vehicle Ownership Costs"/>
+        <s v="Mobile Source Emissions"/>
+        <s v="Surface Water"/>
+        <s v="Highway Noise"/>
+        <s v="Physical Activity"/>
+        <s v="Travel Options / Choices"/>
+        <s v="Noise" u="1"/>
+        <s v="Emissions" u="1"/>
+        <s v="Safety" u="1"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="TYPE" numFmtId="0">
+      <sharedItems count="3">
+        <s v="Social &amp; Equity Values"/>
+        <s v="Economic Vitality"/>
+        <s v="Environmental Stewardship"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="BENEFITS" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="700"/>
+    </cacheField>
+    <cacheField name="YEAR" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="2040" maxValue="2040"/>
+    </cacheField>
+    <cacheField name="DOLLARS" numFmtId="1">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="589.38121680096697"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
 <file path=xl/pivotCache/pivotCacheDefinition3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Ben Stabler" refreshedDate="42734.803486574077" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="2">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Ben Stabler" refreshedDate="42783.615402546297" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="2">
   <cacheSource type="worksheet">
     <worksheetSource name="BCRatio"/>
   </cacheSource>
@@ -12299,16 +12349,16 @@
       </sharedItems>
     </cacheField>
     <cacheField name="Benefit" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="5780" maxValue="8129"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="4866.6049044422707" maxValue="6844.3998733929438"/>
     </cacheField>
     <cacheField name="Cost" numFmtId="0">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="5472.8255845804069" maxValue="6819.9826515540462"/>
     </cacheField>
-    <cacheField name="ScenarioRank" numFmtId="0">
+    <cacheField name="ScenPolicyRank" numFmtId="0">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="3" maxValue="4"/>
     </cacheField>
     <cacheField name="BCRatio" numFmtId="166">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="1.0561272071752208" maxValue="1.1919385158769682"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0.88923076923076949" maxValue="1.0035802469135804"/>
     </cacheField>
   </cacheFields>
   <extLst>
@@ -12320,491 +12370,6 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="60">
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="200"/>
-    <n v="2040"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="1"/>
-    <n v="200"/>
-    <n v="2040"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="2"/>
-    <x v="1"/>
-    <n v="200"/>
-    <n v="2040"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="3"/>
-    <x v="1"/>
-    <n v="400"/>
-    <n v="2040"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="4"/>
-    <x v="1"/>
-    <n v="140"/>
-    <n v="2040"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="5"/>
-    <x v="2"/>
-    <n v="400"/>
-    <n v="2040"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="6"/>
-    <x v="2"/>
-    <n v="66"/>
-    <n v="2040"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="7"/>
-    <x v="2"/>
-    <n v="120"/>
-    <n v="2040"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="8"/>
-    <x v="0"/>
-    <n v="300"/>
-    <n v="2040"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-    <n v="111"/>
-    <n v="2040"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="0"/>
-    <n v="2040"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="1"/>
-    <n v="150"/>
-    <n v="2040"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="2"/>
-    <x v="1"/>
-    <n v="100"/>
-    <n v="2040"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="3"/>
-    <x v="1"/>
-    <n v="250"/>
-    <n v="2040"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="4"/>
-    <x v="1"/>
-    <n v="150"/>
-    <n v="2040"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="5"/>
-    <x v="2"/>
-    <n v="400"/>
-    <n v="2040"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="6"/>
-    <x v="2"/>
-    <n v="50"/>
-    <n v="2040"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="7"/>
-    <x v="2"/>
-    <n v="45"/>
-    <n v="2040"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="8"/>
-    <x v="0"/>
-    <n v="260"/>
-    <n v="2040"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="0"/>
-    <n v="100"/>
-    <n v="2040"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="100"/>
-    <n v="2040"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="1"/>
-    <n v="400"/>
-    <n v="2040"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="2"/>
-    <x v="1"/>
-    <n v="100"/>
-    <n v="2040"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="3"/>
-    <x v="1"/>
-    <n v="300"/>
-    <n v="2040"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="4"/>
-    <x v="1"/>
-    <n v="200"/>
-    <n v="2040"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="5"/>
-    <x v="2"/>
-    <n v="276"/>
-    <n v="2040"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="6"/>
-    <x v="2"/>
-    <n v="50"/>
-    <n v="2040"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="7"/>
-    <x v="2"/>
-    <n v="102"/>
-    <n v="2040"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="8"/>
-    <x v="0"/>
-    <n v="300"/>
-    <n v="2040"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="9"/>
-    <x v="0"/>
-    <n v="102"/>
-    <n v="2040"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="0"/>
-    <n v="2040"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="1"/>
-    <n v="350"/>
-    <n v="2040"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="2"/>
-    <x v="1"/>
-    <n v="100"/>
-    <n v="2040"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="3"/>
-    <x v="1"/>
-    <n v="150"/>
-    <n v="2040"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="4"/>
-    <x v="1"/>
-    <n v="170"/>
-    <n v="2040"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="5"/>
-    <x v="2"/>
-    <n v="200"/>
-    <n v="2040"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="6"/>
-    <x v="2"/>
-    <n v="30"/>
-    <n v="2040"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="7"/>
-    <x v="2"/>
-    <n v="45"/>
-    <n v="2040"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="8"/>
-    <x v="0"/>
-    <n v="240"/>
-    <n v="2040"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="9"/>
-    <x v="0"/>
-    <n v="100"/>
-    <n v="2040"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="300"/>
-    <n v="2040"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-    <x v="1"/>
-    <x v="1"/>
-    <n v="600"/>
-    <n v="2040"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-    <x v="2"/>
-    <x v="1"/>
-    <n v="300"/>
-    <n v="2040"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-    <x v="3"/>
-    <x v="1"/>
-    <n v="700"/>
-    <n v="2040"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-    <x v="4"/>
-    <x v="1"/>
-    <n v="340"/>
-    <n v="2040"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-    <x v="5"/>
-    <x v="2"/>
-    <n v="676"/>
-    <n v="2040"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-    <x v="6"/>
-    <x v="2"/>
-    <n v="111"/>
-    <n v="2040"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-    <x v="7"/>
-    <x v="2"/>
-    <n v="222"/>
-    <n v="2040"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-    <x v="8"/>
-    <x v="0"/>
-    <n v="600"/>
-    <n v="2040"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-    <x v="9"/>
-    <x v="0"/>
-    <n v="213"/>
-    <n v="2040"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="2"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="0"/>
-    <n v="2040"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="2"/>
-    <x v="1"/>
-    <x v="1"/>
-    <n v="500"/>
-    <n v="2040"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="2"/>
-    <x v="2"/>
-    <x v="1"/>
-    <n v="200"/>
-    <n v="2040"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="2"/>
-    <x v="3"/>
-    <x v="1"/>
-    <n v="400"/>
-    <n v="2040"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="2"/>
-    <x v="4"/>
-    <x v="1"/>
-    <n v="320"/>
-    <n v="2040"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="2"/>
-    <x v="5"/>
-    <x v="2"/>
-    <n v="600"/>
-    <n v="2040"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="2"/>
-    <x v="6"/>
-    <x v="2"/>
-    <n v="80"/>
-    <n v="2040"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="2"/>
-    <x v="7"/>
-    <x v="2"/>
-    <n v="90"/>
-    <n v="2040"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="2"/>
-    <x v="8"/>
-    <x v="0"/>
-    <n v="500"/>
-    <n v="2040"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="2"/>
-    <x v="9"/>
-    <x v="0"/>
-    <n v="200"/>
-    <n v="2040"/>
-  </r>
-</pivotCacheRecords>
-</file>
-
-<file path=xl/pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="6">
   <r>
     <x v="0"/>
@@ -12863,27 +12428,572 @@
 </pivotCacheRecords>
 </file>
 
+<file path=xl/pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="60">
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="200"/>
+    <n v="2040"/>
+    <n v="168.39463337170483"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="200"/>
+    <n v="2040"/>
+    <n v="168.39463337170483"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="200"/>
+    <n v="2040"/>
+    <n v="168.39463337170483"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="1"/>
+    <n v="400"/>
+    <n v="2040"/>
+    <n v="336.78926674340966"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="4"/>
+    <x v="1"/>
+    <n v="140"/>
+    <n v="2040"/>
+    <n v="117.87624336019339"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="5"/>
+    <x v="2"/>
+    <n v="400"/>
+    <n v="2040"/>
+    <n v="336.78926674340966"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="6"/>
+    <x v="2"/>
+    <n v="66"/>
+    <n v="2040"/>
+    <n v="55.570229012662594"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="7"/>
+    <x v="2"/>
+    <n v="120"/>
+    <n v="2040"/>
+    <n v="101.0367800230229"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="8"/>
+    <x v="0"/>
+    <n v="300"/>
+    <n v="2040"/>
+    <n v="252.59195005755726"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="9"/>
+    <x v="0"/>
+    <n v="111"/>
+    <n v="2040"/>
+    <n v="93.459021521296179"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="0"/>
+    <n v="2040"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="150"/>
+    <n v="2040"/>
+    <n v="126.29597502877863"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="100"/>
+    <n v="2040"/>
+    <n v="84.197316685852414"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="1"/>
+    <n v="250"/>
+    <n v="2040"/>
+    <n v="210.49329171463106"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="4"/>
+    <x v="1"/>
+    <n v="150"/>
+    <n v="2040"/>
+    <n v="126.29597502877863"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="5"/>
+    <x v="2"/>
+    <n v="400"/>
+    <n v="2040"/>
+    <n v="336.78926674340966"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="6"/>
+    <x v="2"/>
+    <n v="50"/>
+    <n v="2040"/>
+    <n v="42.098658342926207"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="7"/>
+    <x v="2"/>
+    <n v="45"/>
+    <n v="2040"/>
+    <n v="37.888792508633585"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="8"/>
+    <x v="0"/>
+    <n v="260"/>
+    <n v="2040"/>
+    <n v="218.91302338321628"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="9"/>
+    <x v="0"/>
+    <n v="100"/>
+    <n v="2040"/>
+    <n v="84.197316685852414"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="100"/>
+    <n v="2040"/>
+    <n v="84.197316685852414"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="400"/>
+    <n v="2040"/>
+    <n v="336.78926674340966"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="100"/>
+    <n v="2040"/>
+    <n v="84.197316685852414"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="1"/>
+    <n v="300"/>
+    <n v="2040"/>
+    <n v="252.59195005755726"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="4"/>
+    <x v="1"/>
+    <n v="200"/>
+    <n v="2040"/>
+    <n v="168.39463337170483"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="5"/>
+    <x v="2"/>
+    <n v="276"/>
+    <n v="2040"/>
+    <n v="232.38459405295268"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="6"/>
+    <x v="2"/>
+    <n v="50"/>
+    <n v="2040"/>
+    <n v="42.098658342926207"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="7"/>
+    <x v="2"/>
+    <n v="102"/>
+    <n v="2040"/>
+    <n v="85.88126301956946"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="8"/>
+    <x v="0"/>
+    <n v="300"/>
+    <n v="2040"/>
+    <n v="252.59195005755726"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="9"/>
+    <x v="0"/>
+    <n v="102"/>
+    <n v="2040"/>
+    <n v="85.88126301956946"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="0"/>
+    <n v="2040"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="350"/>
+    <n v="2040"/>
+    <n v="294.69060840048348"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="100"/>
+    <n v="2040"/>
+    <n v="84.197316685852414"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="1"/>
+    <n v="150"/>
+    <n v="2040"/>
+    <n v="126.29597502877863"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="4"/>
+    <x v="1"/>
+    <n v="170"/>
+    <n v="2040"/>
+    <n v="143.13543836594911"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="5"/>
+    <x v="2"/>
+    <n v="200"/>
+    <n v="2040"/>
+    <n v="168.39463337170483"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="6"/>
+    <x v="2"/>
+    <n v="30"/>
+    <n v="2040"/>
+    <n v="25.259195005755725"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="7"/>
+    <x v="2"/>
+    <n v="45"/>
+    <n v="2040"/>
+    <n v="37.888792508633585"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="8"/>
+    <x v="0"/>
+    <n v="240"/>
+    <n v="2040"/>
+    <n v="202.0735600460458"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="9"/>
+    <x v="0"/>
+    <n v="100"/>
+    <n v="2040"/>
+    <n v="84.197316685852414"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="300"/>
+    <n v="2040"/>
+    <n v="252.59195005755726"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="600"/>
+    <n v="2040"/>
+    <n v="505.18390011511451"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="300"/>
+    <n v="2040"/>
+    <n v="252.59195005755726"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="3"/>
+    <x v="1"/>
+    <n v="700"/>
+    <n v="2040"/>
+    <n v="589.38121680096697"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="4"/>
+    <x v="1"/>
+    <n v="340"/>
+    <n v="2040"/>
+    <n v="286.27087673189823"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="5"/>
+    <x v="2"/>
+    <n v="676"/>
+    <n v="2040"/>
+    <n v="569.17386079636231"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="6"/>
+    <x v="2"/>
+    <n v="111"/>
+    <n v="2040"/>
+    <n v="93.459021521296179"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="7"/>
+    <x v="2"/>
+    <n v="222"/>
+    <n v="2040"/>
+    <n v="186.91804304259236"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="8"/>
+    <x v="0"/>
+    <n v="600"/>
+    <n v="2040"/>
+    <n v="505.18390011511451"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="9"/>
+    <x v="0"/>
+    <n v="213"/>
+    <n v="2040"/>
+    <n v="179.34028454086564"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="0"/>
+    <n v="2040"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="500"/>
+    <n v="2040"/>
+    <n v="420.98658342926211"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="200"/>
+    <n v="2040"/>
+    <n v="168.39463337170483"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="3"/>
+    <x v="1"/>
+    <n v="400"/>
+    <n v="2040"/>
+    <n v="336.78926674340966"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="4"/>
+    <x v="1"/>
+    <n v="320"/>
+    <n v="2040"/>
+    <n v="269.43141339472771"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="5"/>
+    <x v="2"/>
+    <n v="600"/>
+    <n v="2040"/>
+    <n v="505.18390011511451"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="6"/>
+    <x v="2"/>
+    <n v="80"/>
+    <n v="2040"/>
+    <n v="67.357853348681928"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="7"/>
+    <x v="2"/>
+    <n v="90"/>
+    <n v="2040"/>
+    <n v="75.777585017267171"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="8"/>
+    <x v="0"/>
+    <n v="500"/>
+    <n v="2040"/>
+    <n v="420.98658342926211"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="9"/>
+    <x v="0"/>
+    <n v="200"/>
+    <n v="2040"/>
+    <n v="168.39463337170483"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
 <file path=xl/pivotCache/pivotCacheRecords3.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="2">
   <r>
     <x v="0"/>
-    <n v="8129"/>
+    <n v="6844.3998733929438"/>
     <n v="6819.9826515540462"/>
     <n v="3"/>
-    <n v="1.1919385158769682"/>
+    <n v="1.0035802469135804"/>
   </r>
   <r>
     <x v="1"/>
-    <n v="5780"/>
+    <n v="4866.6049044422707"/>
     <n v="5472.8255845804069"/>
     <n v="4"/>
-    <n v="1.0561272071752208"/>
+    <n v="0.88923076923076949"/>
   </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="50" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="43" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="G2:H5" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="7">
     <pivotField axis="axisRow" showAll="0">
@@ -12897,7 +13007,7 @@
     </pivotField>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" showAll="0"/>
     <pivotField showAll="0" defaultSubtotal="0"/>
     <pivotField showAll="0" defaultSubtotal="0"/>
     <pivotField showAll="0"/>
@@ -12927,14 +13037,17 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
       <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
     </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
   </extLst>
 </pivotTableDefinition>
 </file>
 
 <file path=xl/pivotTables/pivotTable10.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable4" cacheId="24" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="13">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable4" cacheId="88" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="13">
   <location ref="A3:E7" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
-  <pivotFields count="6">
+  <pivotFields count="7">
     <pivotField axis="axisRow" showAll="0">
       <items count="5">
         <item m="1" x="2"/>
@@ -12945,12 +13058,13 @@
       </items>
     </pivotField>
     <pivotField axis="axisPage" showAll="0">
-      <items count="6">
+      <items count="7">
+        <item m="1" x="4"/>
         <item m="1" x="3"/>
-        <item x="2"/>
-        <item m="1" x="4"/>
+        <item m="1" x="5"/>
         <item x="0"/>
         <item x="1"/>
+        <item x="2"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -12963,8 +13077,9 @@
         <item t="default"/>
       </items>
     </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
     <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0" defaultSubtotal="0"/>
   </pivotFields>
   <rowFields count="1">
     <field x="0"/>
@@ -12998,10 +13113,10 @@
     </i>
   </colItems>
   <pageFields count="1">
-    <pageField fld="1" item="1" hier="-1"/>
+    <pageField fld="1" item="3" hier="-1"/>
   </pageFields>
   <dataFields count="1">
-    <dataField name="Sum of DOLLARS" fld="4" baseField="0" baseItem="0"/>
+    <dataField name="Sum of DOLLARS" fld="6" baseField="0" baseItem="0"/>
   </dataFields>
   <chartFormats count="10">
     <chartFormat chart="10" format="31" series="1">
@@ -13127,12 +13242,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
       <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
     </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
   </extLst>
 </pivotTableDefinition>
 </file>
 
 <file path=xl/pivotTables/pivotTable11.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable15" cacheId="59" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable15" cacheId="94" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="A1:B4" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="5">
     <pivotField axis="axisRow" showAll="0">
@@ -13146,7 +13264,7 @@
     </pivotField>
     <pivotField showAll="0" defaultSubtotal="0"/>
     <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0"/>
     <pivotField dataField="1" showAll="0"/>
   </pivotFields>
   <rowFields count="1">
@@ -13170,28 +13288,28 @@
     <dataField name="Sum of BCRatio" fld="4" baseField="0" baseItem="0" numFmtId="165"/>
   </dataFields>
   <formats count="8">
-    <format dxfId="51">
+    <format dxfId="19">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="50">
+    <format dxfId="18">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="49">
+    <format dxfId="17">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="48">
+    <format dxfId="16">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="47">
+    <format dxfId="15">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="46">
+    <format dxfId="14">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="45">
+    <format dxfId="13">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="44">
+    <format dxfId="12">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -13211,12 +13329,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
       <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
     </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
   </extLst>
 </pivotTableDefinition>
 </file>
 
 <file path=xl/pivotTables/pivotTable12.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable15" cacheId="59" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable15" cacheId="94" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
   <location ref="A2:C5" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="5">
     <pivotField axis="axisRow" showAll="0">
@@ -13230,7 +13351,7 @@
     </pivotField>
     <pivotField dataField="1" showAll="0" defaultSubtotal="0"/>
     <pivotField dataField="1" showAll="0" defaultSubtotal="0"/>
-    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0"/>
     <pivotField showAll="0"/>
   </pivotFields>
   <rowFields count="1">
@@ -13287,12 +13408,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
       <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
     </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
   </extLst>
 </pivotTableDefinition>
 </file>
 
 <file path=xl/pivotTables/pivotTable13.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable15" cacheId="59" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable15" cacheId="94" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
   <location ref="A2:D5" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="5">
     <pivotField axis="axisRow" showAll="0">
@@ -13306,7 +13430,7 @@
     </pivotField>
     <pivotField dataField="1" showAll="0" defaultSubtotal="0"/>
     <pivotField dataField="1" showAll="0" defaultSubtotal="0"/>
-    <pivotField dataField="1" showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" showAll="0"/>
     <pivotField showAll="0"/>
   </pivotFields>
   <rowFields count="1">
@@ -13367,14 +13491,17 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
       <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
     </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
   </extLst>
 </pivotTableDefinition>
 </file>
 
 <file path=xl/pivotTables/pivotTable14.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable16" cacheId="24" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="10">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable16" cacheId="88" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="10">
   <location ref="A4:D16" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
-  <pivotFields count="6">
+  <pivotFields count="7">
     <pivotField axis="axisCol" showAll="0">
       <items count="5">
         <item m="1" x="2"/>
@@ -13385,12 +13512,13 @@
       </items>
     </pivotField>
     <pivotField axis="axisPage" showAll="0">
-      <items count="6">
+      <items count="7">
+        <item m="1" x="4"/>
         <item m="1" x="3"/>
-        <item x="2"/>
-        <item m="1" x="4"/>
+        <item m="1" x="5"/>
         <item x="0"/>
         <item x="1"/>
+        <item x="2"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -13413,8 +13541,9 @@
       </items>
     </pivotField>
     <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
     <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0" defaultSubtotal="0"/>
   </pivotFields>
   <rowFields count="1">
     <field x="2"/>
@@ -13469,10 +13598,10 @@
     </i>
   </colItems>
   <pageFields count="1">
-    <pageField fld="1" item="1" hier="-1"/>
+    <pageField fld="1" item="3" hier="-1"/>
   </pageFields>
   <dataFields count="1">
-    <dataField name="Sum of DOLLARS" fld="4" baseField="0" baseItem="0"/>
+    <dataField name="Sum of DOLLARS" fld="6" baseField="0" baseItem="0"/>
   </dataFields>
   <chartFormats count="4">
     <chartFormat chart="9" format="2" series="1">
@@ -13529,14 +13658,17 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
       <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
     </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
   </extLst>
 </pivotTableDefinition>
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable12" cacheId="24" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable12" cacheId="88" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A2:B5" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="6">
+  <pivotFields count="7">
     <pivotField axis="axisRow" showAll="0">
       <items count="5">
         <item m="1" x="2"/>
@@ -13549,8 +13681,9 @@
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
     <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0" defaultSubtotal="0"/>
   </pivotFields>
   <rowFields count="1">
     <field x="0"/>
@@ -13570,19 +13703,22 @@
     <i/>
   </colItems>
   <dataFields count="1">
-    <dataField name="Sum of DOLLARS" fld="4" baseField="0" baseItem="0"/>
+    <dataField name="Sum of DOLLARS" fld="6" baseField="0" baseItem="0"/>
   </dataFields>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
       <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
     </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
   </extLst>
 </pivotTableDefinition>
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable13" cacheId="50" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable13" cacheId="43" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="D2:E5" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="7">
     <pivotField axis="axisRow" showAll="0">
@@ -13596,7 +13732,7 @@
     </pivotField>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
-    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0"/>
     <pivotField showAll="0" defaultSubtotal="0"/>
     <pivotField showAll="0" defaultSubtotal="0"/>
     <pivotField dataField="1" showAll="0"/>
@@ -13626,12 +13762,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
       <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
     </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
   </extLst>
 </pivotTableDefinition>
 </file>
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="50" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="9">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="43" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="9">
   <location ref="A3:D7" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="7">
     <pivotField axis="axisCol" showAll="0">
@@ -13654,7 +13793,7 @@
       </items>
     </pivotField>
     <pivotField showAll="0"/>
-    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0"/>
     <pivotField showAll="0" defaultSubtotal="0"/>
     <pivotField showAll="0" defaultSubtotal="0"/>
     <pivotField dataField="1" numFmtId="164" showAll="0"/>
@@ -13745,12 +13884,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
       <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
     </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
   </extLst>
 </pivotTableDefinition>
 </file>
 
 <file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="50" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="8">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="43" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="8">
   <location ref="A3:E7" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="7">
     <pivotField axis="axisRow" showAll="0">
@@ -13772,7 +13914,7 @@
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0"/>
     <pivotField showAll="0" defaultSubtotal="0"/>
     <pivotField showAll="0" defaultSubtotal="0"/>
     <pivotField dataField="1" numFmtId="164" showAll="0"/>
@@ -13938,14 +14080,17 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
       <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
     </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
   </extLst>
 </pivotTableDefinition>
 </file>
 
 <file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable4" cacheId="24" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="11">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable4" cacheId="88" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="11">
   <location ref="A3:C18" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
-  <pivotFields count="6">
+  <pivotFields count="7">
     <pivotField axis="axisPage" showAll="0">
       <items count="5">
         <item m="1" x="2"/>
@@ -13956,12 +14101,13 @@
       </items>
     </pivotField>
     <pivotField axis="axisCol" showAll="0">
-      <items count="6">
+      <items count="7">
+        <item h="1" m="1" x="4"/>
         <item h="1" m="1" x="3"/>
-        <item h="1" x="2"/>
-        <item h="1" m="1" x="4"/>
+        <item h="1" m="1" x="5"/>
         <item x="0"/>
         <item h="1" x="1"/>
+        <item h="1" x="2"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -13991,8 +14137,9 @@
         <item t="default"/>
       </items>
     </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
     <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0" defaultSubtotal="0"/>
   </pivotFields>
   <rowFields count="2">
     <field x="3"/>
@@ -14057,7 +14204,7 @@
     <pageField fld="0" item="2" hier="-1"/>
   </pageFields>
   <dataFields count="1">
-    <dataField name="Sum of DOLLARS" fld="4" baseField="0" baseItem="0"/>
+    <dataField name="Sum of DOLLARS" fld="6" baseField="0" baseItem="0"/>
   </dataFields>
   <chartFormats count="4">
     <chartFormat chart="10" format="37" series="1">
@@ -14111,14 +14258,17 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
       <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
     </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
   </extLst>
 </pivotTableDefinition>
 </file>
 
 <file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable4" cacheId="24" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="12">
-  <location ref="A3:C8" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
-  <pivotFields count="6">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable4" cacheId="88" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="12">
+  <location ref="A3:E8" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="7">
     <pivotField axis="axisPage" showAll="0">
       <items count="5">
         <item m="1" x="2"/>
@@ -14129,12 +14279,13 @@
       </items>
     </pivotField>
     <pivotField axis="axisCol" showAll="0">
-      <items count="6">
+      <items count="7">
+        <item m="1" x="4"/>
         <item h="1" m="1" x="3"/>
+        <item m="1" x="5"/>
+        <item x="0"/>
+        <item x="1"/>
         <item x="2"/>
-        <item h="1" m="1" x="4"/>
-        <item h="1" x="0"/>
-        <item h="1" x="1"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -14147,8 +14298,9 @@
         <item t="default"/>
       </items>
     </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
     <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0" defaultSubtotal="0"/>
   </pivotFields>
   <rowFields count="1">
     <field x="3"/>
@@ -14170,9 +14322,15 @@
   <colFields count="1">
     <field x="1"/>
   </colFields>
-  <colItems count="2">
+  <colItems count="4">
     <i>
-      <x v="1"/>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
     </i>
     <i t="grand">
       <x/>
@@ -14182,9 +14340,9 @@
     <pageField fld="0" item="2" hier="-1"/>
   </pageFields>
   <dataFields count="1">
-    <dataField name="Sum of DOLLARS" fld="4" baseField="0" baseItem="0"/>
+    <dataField name="Sum of DOLLARS" fld="6" baseField="0" baseItem="0"/>
   </dataFields>
-  <chartFormats count="6">
+  <chartFormats count="7">
     <chartFormat chart="10" format="31" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="2">
@@ -14257,20 +14415,32 @@
         </references>
       </pivotArea>
     </chartFormat>
+    <chartFormat chart="11" format="43" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
   </chartFormats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
       <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
     </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
   </extLst>
 </pivotTableDefinition>
 </file>
 
 <file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable4" cacheId="24" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="13">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable4" cacheId="88" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="13">
   <location ref="A4:B13" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
-  <pivotFields count="6">
+  <pivotFields count="7">
     <pivotField axis="axisRow" showAll="0">
       <items count="5">
         <item m="1" x="2"/>
@@ -14281,12 +14451,13 @@
       </items>
     </pivotField>
     <pivotField axis="axisRow" showAll="0">
-      <items count="6">
+      <items count="7">
+        <item m="1" x="4"/>
         <item m="1" x="3"/>
-        <item x="2"/>
-        <item m="1" x="4"/>
+        <item m="1" x="5"/>
         <item x="0"/>
         <item x="1"/>
+        <item x="2"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -14299,8 +14470,9 @@
         <item t="default"/>
       </items>
     </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
     <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0" defaultSubtotal="0"/>
   </pivotFields>
   <rowFields count="2">
     <field x="0"/>
@@ -14311,7 +14483,16 @@
       <x v="2"/>
     </i>
     <i r="1">
-      <x v="1"/>
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="3"/>
     </i>
     <i r="1">
       <x v="3"/>
@@ -14319,17 +14500,8 @@
     <i r="1">
       <x v="4"/>
     </i>
-    <i>
-      <x v="3"/>
-    </i>
     <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="4"/>
+      <x v="5"/>
     </i>
     <i t="grand">
       <x/>
@@ -14342,7 +14514,7 @@
     <pageField fld="3" item="0" hier="-1"/>
   </pageFields>
   <dataFields count="1">
-    <dataField name="Sum of DOLLARS" fld="4" baseField="0" baseItem="0"/>
+    <dataField name="Sum of DOLLARS" fld="6" baseField="0" baseItem="0"/>
   </dataFields>
   <chartFormats count="1">
     <chartFormat chart="12" format="44" series="1">
@@ -14360,14 +14532,17 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
       <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
     </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
   </extLst>
 </pivotTableDefinition>
 </file>
 
 <file path=xl/pivotTables/pivotTable9.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable4" cacheId="24" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="12">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable4" cacheId="88" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="12">
   <location ref="A3:D18" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
-  <pivotFields count="6">
+  <pivotFields count="7">
     <pivotField axis="axisCol" showAll="0">
       <items count="5">
         <item m="1" x="2"/>
@@ -14378,12 +14553,13 @@
       </items>
     </pivotField>
     <pivotField axis="axisPage" showAll="0">
-      <items count="6">
+      <items count="7">
+        <item m="1" x="4"/>
         <item m="1" x="3"/>
-        <item x="2"/>
-        <item m="1" x="4"/>
+        <item m="1" x="5"/>
         <item x="0"/>
         <item x="1"/>
+        <item x="2"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -14413,8 +14589,9 @@
         <item t="default"/>
       </items>
     </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
     <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0" defaultSubtotal="0"/>
   </pivotFields>
   <rowFields count="2">
     <field x="3"/>
@@ -14479,10 +14656,10 @@
     </i>
   </colItems>
   <pageFields count="1">
-    <pageField fld="1" item="1" hier="-1"/>
+    <pageField fld="1" item="3" hier="-1"/>
   </pageFields>
   <dataFields count="1">
-    <dataField name="Sum of DOLLARS" fld="4" baseField="0" baseItem="0"/>
+    <dataField name="Sum of DOLLARS" fld="6" baseField="0" baseItem="0"/>
   </dataFields>
   <chartFormats count="7">
     <chartFormat chart="10" format="37" series="1">
@@ -14575,6 +14752,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
       <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
     </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
   </extLst>
 </pivotTableDefinition>
 </file>
@@ -14586,9 +14766,9 @@
     <tableColumn id="2" name="COC"/>
     <tableColumn id="3" name="BENEFIT"/>
     <tableColumn id="4" name="TYPE"/>
-    <tableColumn id="6" name="BENEFITS" dataDxfId="42" dataCellStyle="Currency"/>
-    <tableColumn id="7" name="YEAR" dataDxfId="40" dataCellStyle="Currency"/>
-    <tableColumn id="5" name="DOLLARS" dataDxfId="39" dataCellStyle="Currency">
+    <tableColumn id="6" name="BENEFITS" dataDxfId="29" dataCellStyle="Currency"/>
+    <tableColumn id="7" name="YEAR" dataDxfId="28" dataCellStyle="Currency"/>
+    <tableColumn id="5" name="DOLLARS" dataDxfId="27" dataCellStyle="Currency">
       <calculatedColumnFormula>Benefits[[#This Row],[BENEFITS]]/((1+Overview!$C$7)^(Overview!$C$8-Benefits[[#This Row],[YEAR]]))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -14603,9 +14783,9 @@
     <tableColumn id="2" name="COST"/>
     <tableColumn id="3" name="TYPE"/>
     <tableColumn id="7" name="SCENPOLICYRANK"/>
-    <tableColumn id="5" name="COSTS" dataDxfId="41" dataCellStyle="Currency"/>
-    <tableColumn id="4" name="YEAR" dataDxfId="53" dataCellStyle="Currency"/>
-    <tableColumn id="6" name="DOLLARS" dataDxfId="38">
+    <tableColumn id="5" name="COSTS" dataDxfId="26" dataCellStyle="Currency"/>
+    <tableColumn id="4" name="YEAR" dataDxfId="25" dataCellStyle="Currency"/>
+    <tableColumn id="6" name="DOLLARS" dataDxfId="24">
       <calculatedColumnFormula>Costs[[#This Row],[COSTS]]/((1+Overview!$C$7)^(Overview!$C$8-Costs[[#This Row],[YEAR]]))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -14620,16 +14800,16 @@
     <tableColumn id="1" name="Scenario">
       <calculatedColumnFormula>A3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="Benefit" dataDxfId="11">
+    <tableColumn id="5" name="Benefit" dataDxfId="23">
       <calculatedColumnFormula>GETPIVOTDATA("Sum of DOLLARS",$A$2,"SCENARIO",A3)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="Cost" dataDxfId="10">
+    <tableColumn id="4" name="Cost" dataDxfId="22">
       <calculatedColumnFormula>GETPIVOTDATA("Sum of DOLLARS",$D$2,"SCENARIO",A3)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="ScenPolicyRank" dataDxfId="1">
+    <tableColumn id="3" name="ScenPolicyRank" dataDxfId="21">
       <calculatedColumnFormula>GETPIVOTDATA("Average of SCENPOLICYRANK",$G$2,"SCENARIO",A3)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="BCRatio" dataDxfId="52">
+    <tableColumn id="2" name="BCRatio" dataDxfId="20">
       <calculatedColumnFormula>GETPIVOTDATA("DOLLARS",$A$2,"SCENARIO",J3)/GETPIVOTDATA("DOLLARS",$D$2,"SCENARIO",J3)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -14650,7 +14830,7 @@
     <tableColumn id="3" name="Cost">
       <calculatedColumnFormula>GETPIVOTDATA("Sum of Cost",$A$2,"Scenario",E3)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="BCRatio" dataDxfId="43">
+    <tableColumn id="4" name="BCRatio" dataDxfId="11">
       <calculatedColumnFormula>ROUND(BenefitsToCost[[#This Row],[Benefit]]/BenefitsToCost[[#This Row],[Cost]],2)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -14671,13 +14851,13 @@
     <tableColumn id="3" name="Cost">
       <calculatedColumnFormula>GETPIVOTDATA("Sum of Cost",$A$2,"Scenario",F3)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Policy Rank" dataDxfId="0">
-      <calculatedColumnFormula>GETPIVOTDATA("Average of ScenPolicyRank",$A$2,"Scenario",F3)</calculatedColumnFormula>
+    <tableColumn id="6" name="Policy Rank" dataDxfId="8">
+      <calculatedColumnFormula>GETPIVOTDATA("Average of SCENPOLICYRANK",$A$2,"Scenario",F3)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="BCDiff" dataDxfId="36">
+    <tableColumn id="5" name="BCDiff" dataDxfId="10">
       <calculatedColumnFormula>BenefitsToCost6[[#This Row],[Benefit]]-BenefitsToCost6[[#This Row],[Cost]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="BCRatio" dataDxfId="37">
+    <tableColumn id="4" name="BCRatio" dataDxfId="9">
       <calculatedColumnFormula>ROUND(BenefitsToCost6[[#This Row],[Benefit]]/BenefitsToCost6[[#This Row],[Cost]],2)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -14996,36 +15176,36 @@
   <sheetData>
     <row r="2" spans="2:3" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B2" s="18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="2:3" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B4" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B5" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B6" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C7" s="15">
         <v>3.5000000000000003E-2</v>
@@ -15033,7 +15213,7 @@
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C8">
         <v>2045</v>
@@ -15044,103 +15224,103 @@
     </row>
     <row r="10" spans="2:3" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B10" s="18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B11" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" t="s">
         <v>29</v>
-      </c>
-      <c r="C11" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="12" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B12" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B13" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B14" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" t="s">
         <v>41</v>
-      </c>
-      <c r="C14" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="15" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B15" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B16" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="C16" t="s">
         <v>79</v>
-      </c>
-      <c r="C16" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="17" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B17" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C17" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="18" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B18" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C18" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="19" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B19" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C19" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="20" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B20" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C20" t="s">
         <v>58</v>
-      </c>
-      <c r="C20" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="21" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B21" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="C21" t="s">
         <v>86</v>
-      </c>
-      <c r="C21" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="22" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B22" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C22" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="23" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
@@ -15148,32 +15328,32 @@
     </row>
     <row r="24" spans="2:3" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B24" s="18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B25" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="26" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B26" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="27" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B27" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="28" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B28" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="29" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B29" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -15210,8 +15390,7 @@
   <cols>
     <col min="1" max="1" width="26.54296875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11" customWidth="1"/>
+    <col min="3" max="4" width="12.26953125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="25.1796875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -15220,33 +15399,33 @@
         <v>10</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>62</v>
       </c>
       <c r="E1" t="str">
         <f>"Benefits by Scenario, COC "&amp;BenefitsByScenario!B1</f>
-        <v>Benefits by Scenario, COC ALL</v>
+        <v>Benefits by Scenario, COC LOWINC</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D4" t="s">
         <v>18</v>
-      </c>
-      <c r="B4" t="s">
-        <v>68</v>
-      </c>
-      <c r="C4" t="s">
-        <v>69</v>
-      </c>
-      <c r="D4" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
@@ -15254,13 +15433,13 @@
         <v>14</v>
       </c>
       <c r="B5" s="5">
-        <v>1940</v>
+        <v>791.45477684701268</v>
       </c>
       <c r="C5" s="5">
-        <v>1420</v>
+        <v>547.28255845804074</v>
       </c>
       <c r="D5" s="5">
-        <v>3360</v>
+        <v>1338.7373353050534</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
@@ -15268,13 +15447,13 @@
         <v>3</v>
       </c>
       <c r="B6" s="5">
-        <v>600</v>
+        <v>168.39463337170483</v>
       </c>
       <c r="C6" s="5">
-        <v>500</v>
+        <v>126.29597502877863</v>
       </c>
       <c r="D6" s="5">
-        <v>1100</v>
+        <v>294.69060840048348</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
@@ -15282,13 +15461,13 @@
         <v>4</v>
       </c>
       <c r="B7" s="5">
-        <v>300</v>
+        <v>168.39463337170483</v>
       </c>
       <c r="C7" s="5">
-        <v>200</v>
+        <v>84.197316685852414</v>
       </c>
       <c r="D7" s="5">
-        <v>500</v>
+        <v>252.59195005755726</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
@@ -15296,13 +15475,13 @@
         <v>5</v>
       </c>
       <c r="B8" s="5">
-        <v>700</v>
+        <v>336.78926674340966</v>
       </c>
       <c r="C8" s="5">
-        <v>400</v>
+        <v>210.49329171463106</v>
       </c>
       <c r="D8" s="5">
-        <v>1100</v>
+        <v>547.28255845804074</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
@@ -15310,13 +15489,13 @@
         <v>6</v>
       </c>
       <c r="B9" s="5">
-        <v>340</v>
+        <v>117.87624336019339</v>
       </c>
       <c r="C9" s="5">
-        <v>320</v>
+        <v>126.29597502877863</v>
       </c>
       <c r="D9" s="5">
-        <v>660</v>
+        <v>244.172218388972</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
@@ -15324,13 +15503,13 @@
         <v>15</v>
       </c>
       <c r="B10" s="5">
-        <v>1009</v>
+        <v>493.39627577909516</v>
       </c>
       <c r="C10" s="5">
-        <v>770</v>
+        <v>416.77671759496945</v>
       </c>
       <c r="D10" s="5">
-        <v>1779</v>
+        <v>910.17299337406462</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
@@ -15338,41 +15517,41 @@
         <v>7</v>
       </c>
       <c r="B11" s="5">
-        <v>111</v>
+        <v>55.570229012662594</v>
       </c>
       <c r="C11" s="5">
-        <v>80</v>
+        <v>42.098658342926207</v>
       </c>
       <c r="D11" s="5">
-        <v>191</v>
+        <v>97.668887355588794</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B12" s="5">
-        <v>676</v>
+        <v>336.78926674340966</v>
       </c>
       <c r="C12" s="5">
-        <v>600</v>
+        <v>336.78926674340966</v>
       </c>
       <c r="D12" s="5">
-        <v>1276</v>
+        <v>673.57853348681931</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B13" s="5">
-        <v>222</v>
+        <v>101.0367800230229</v>
       </c>
       <c r="C13" s="5">
-        <v>90</v>
+        <v>37.888792508633585</v>
       </c>
       <c r="D13" s="5">
-        <v>312</v>
+        <v>138.92557253165648</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
@@ -15380,13 +15559,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="5">
-        <v>1113</v>
+        <v>514.44560495055828</v>
       </c>
       <c r="C14" s="5">
-        <v>700</v>
+        <v>303.11034006906868</v>
       </c>
       <c r="D14" s="5">
-        <v>1813</v>
+        <v>817.55594501962696</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
@@ -15394,13 +15573,13 @@
         <v>8</v>
       </c>
       <c r="B15" s="5">
-        <v>600</v>
+        <v>252.59195005755726</v>
       </c>
       <c r="C15" s="5">
-        <v>500</v>
+        <v>218.91302338321628</v>
       </c>
       <c r="D15" s="5">
-        <v>1100</v>
+        <v>471.50497344077354</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
@@ -15408,41 +15587,41 @@
         <v>9</v>
       </c>
       <c r="B16" s="5">
-        <v>213</v>
+        <v>93.459021521296179</v>
       </c>
       <c r="C16" s="5">
-        <v>200</v>
+        <v>84.197316685852414</v>
       </c>
       <c r="D16" s="5">
-        <v>413</v>
+        <v>177.65633820714859</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B17" s="5">
-        <v>300</v>
+        <v>168.39463337170483</v>
       </c>
       <c r="C17" s="5">
         <v>0</v>
       </c>
       <c r="D17" s="5">
-        <v>300</v>
+        <v>168.39463337170483</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B18" s="5">
-        <v>4062</v>
+        <v>1799.2966575766659</v>
       </c>
       <c r="C18" s="5">
-        <v>2890</v>
+        <v>1267.1696161220789</v>
       </c>
       <c r="D18" s="5">
-        <v>6952</v>
+        <v>3066.4662736987452</v>
       </c>
     </row>
   </sheetData>
@@ -15456,7 +15635,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView topLeftCell="D1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -15465,7 +15644,7 @@
     <col min="2" max="2" width="16.453125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="25" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.1796875" customWidth="1"/>
-    <col min="5" max="5" width="31.08984375" customWidth="1"/>
+    <col min="5" max="5" width="35.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
@@ -15473,24 +15652,24 @@
         <v>10</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>62</v>
       </c>
       <c r="E1" t="str">
         <f>"Total Benefits by Scenario, COC "&amp;TotalBenefitsByScenario!B1</f>
-        <v>Total Benefits by Scenario, COC ALL</v>
+        <v>Total Benefits by Scenario, COC LOWINC</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B4" t="s">
         <v>14</v>
@@ -15502,58 +15681,58 @@
         <v>13</v>
       </c>
       <c r="E4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B5" s="5">
-        <v>1940</v>
+        <v>791.45477684701268</v>
       </c>
       <c r="C5" s="5">
-        <v>1009</v>
+        <v>493.39627577909516</v>
       </c>
       <c r="D5" s="5">
-        <v>1113</v>
+        <v>514.44560495055828</v>
       </c>
       <c r="E5" s="5">
-        <v>4062</v>
+        <v>1799.2966575766663</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B6" s="5">
-        <v>1420</v>
+        <v>547.28255845804074</v>
       </c>
       <c r="C6" s="5">
-        <v>770</v>
+        <v>416.77671759496945</v>
       </c>
       <c r="D6" s="5">
-        <v>700</v>
+        <v>303.11034006906868</v>
       </c>
       <c r="E6" s="5">
-        <v>2890</v>
+        <v>1267.1696161220789</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B7" s="5">
-        <v>3360</v>
+        <v>1338.7373353050534</v>
       </c>
       <c r="C7" s="5">
-        <v>1779</v>
+        <v>910.17299337406462</v>
       </c>
       <c r="D7" s="5">
-        <v>1813</v>
+        <v>817.55594501962696</v>
       </c>
       <c r="E7" s="5">
-        <v>6952</v>
+        <v>3066.4662736987452</v>
       </c>
     </row>
   </sheetData>
@@ -15566,9 +15745,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -15578,37 +15755,37 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" t="s">
         <v>37</v>
-      </c>
-      <c r="D1" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B2" s="11">
-        <v>1.1919385158769682</v>
+        <v>1.0035802469135804</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B3" s="11">
-        <v>1.0561272071752208</v>
+        <v>0.88923076923076949</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B4" s="11">
-        <v>2.2480657230521892</v>
+        <v>1.8928110161443499</v>
       </c>
     </row>
   </sheetData>
@@ -15622,7 +15799,7 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -15637,38 +15814,38 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="D1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" t="s">
         <v>56</v>
       </c>
-      <c r="C2" t="s">
-        <v>57</v>
-      </c>
       <c r="E2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G2" t="s">
         <v>54</v>
       </c>
-      <c r="G2" t="s">
-        <v>55</v>
-      </c>
       <c r="H2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B3" s="5">
-        <v>8129</v>
+        <v>6844.3998733929438</v>
       </c>
       <c r="C3" s="5">
         <v>6819.9826515540462</v>
@@ -15679,7 +15856,7 @@
       </c>
       <c r="F3">
         <f>GETPIVOTDATA("Sum of Benefit",$A$2,"Scenario",A3)</f>
-        <v>8129</v>
+        <v>6844.3998733929438</v>
       </c>
       <c r="G3">
         <f>GETPIVOTDATA("Sum of Cost",$A$2,"Scenario",E3)</f>
@@ -15687,15 +15864,15 @@
       </c>
       <c r="H3" s="10">
         <f>ROUND(BenefitsToCost[[#This Row],[Benefit]]/BenefitsToCost[[#This Row],[Cost]],2)</f>
-        <v>1.19</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B4" s="5">
-        <v>5780</v>
+        <v>4866.6049044422707</v>
       </c>
       <c r="C4" s="5">
         <v>5472.8255845804069</v>
@@ -15706,7 +15883,7 @@
       </c>
       <c r="F4">
         <f>GETPIVOTDATA("Sum of Benefit",$A$2,"Scenario",A4)</f>
-        <v>5780</v>
+        <v>4866.6049044422707</v>
       </c>
       <c r="G4">
         <f>GETPIVOTDATA("Sum of Cost",$A$2,"Scenario",E4)</f>
@@ -15714,15 +15891,15 @@
       </c>
       <c r="H4" s="10">
         <f>ROUND(BenefitsToCost[[#This Row],[Benefit]]/BenefitsToCost[[#This Row],[Cost]],2)</f>
-        <v>1.06</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B5" s="5">
-        <v>13909</v>
+        <v>11711.004777835215</v>
       </c>
       <c r="C5" s="5">
         <v>12292.808236134453</v>
@@ -15742,7 +15919,7 @@
   <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="T8" sqref="T8"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -15750,7 +15927,7 @@
     <col min="1" max="1" width="12.36328125" customWidth="1"/>
     <col min="2" max="2" width="13.1796875" customWidth="1"/>
     <col min="3" max="3" width="11.81640625" customWidth="1"/>
-    <col min="4" max="4" width="21.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.26953125" customWidth="1"/>
     <col min="5" max="5" width="9.453125" customWidth="1"/>
     <col min="6" max="6" width="9.90625" customWidth="1"/>
     <col min="7" max="7" width="8.81640625" customWidth="1"/>
@@ -15760,47 +15937,47 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="D1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" t="s">
         <v>56</v>
       </c>
-      <c r="C2" t="s">
-        <v>57</v>
-      </c>
       <c r="D2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H2" t="s">
         <v>54</v>
       </c>
-      <c r="H2" t="s">
-        <v>55</v>
-      </c>
       <c r="I2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B3" s="5">
-        <v>8129</v>
+        <v>6844.3998733929438</v>
       </c>
       <c r="C3" s="5">
         <v>6819.9826515540462</v>
@@ -15815,31 +15992,31 @@
       </c>
       <c r="G3">
         <f>GETPIVOTDATA("Sum of Benefit",$A$2,"Scenario",A3)</f>
-        <v>8129</v>
+        <v>6844.3998733929438</v>
       </c>
       <c r="H3">
         <f>GETPIVOTDATA("Sum of Cost",$A$2,"Scenario",F3)</f>
         <v>6819.9826515540462</v>
       </c>
       <c r="I3">
-        <f t="shared" ref="I3:I4" si="0">GETPIVOTDATA("Average of ScenPolicyRank",$A$2,"Scenario",F3)</f>
+        <f>GETPIVOTDATA("Average of SCENPOLICYRANK",$A$2,"Scenario",F3)</f>
         <v>3</v>
       </c>
       <c r="J3">
         <f>BenefitsToCost6[[#This Row],[Benefit]]-BenefitsToCost6[[#This Row],[Cost]]</f>
-        <v>1309.0173484459538</v>
+        <v>24.417221838897603</v>
       </c>
       <c r="K3" s="10">
         <f>ROUND(BenefitsToCost6[[#This Row],[Benefit]]/BenefitsToCost6[[#This Row],[Cost]],2)</f>
-        <v>1.19</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B4" s="5">
-        <v>5780</v>
+        <v>4866.6049044422707</v>
       </c>
       <c r="C4" s="5">
         <v>5472.8255845804069</v>
@@ -15854,31 +16031,31 @@
       </c>
       <c r="G4">
         <f>GETPIVOTDATA("Sum of Benefit",$A$2,"Scenario",A4)</f>
-        <v>5780</v>
+        <v>4866.6049044422707</v>
       </c>
       <c r="H4">
         <f>GETPIVOTDATA("Sum of Cost",$A$2,"Scenario",F4)</f>
         <v>5472.8255845804069</v>
       </c>
       <c r="I4">
-        <f t="shared" si="0"/>
+        <f>GETPIVOTDATA("Average of SCENPOLICYRANK",$A$2,"Scenario",F4)</f>
         <v>4</v>
       </c>
       <c r="J4">
         <f>BenefitsToCost6[[#This Row],[Benefit]]-BenefitsToCost6[[#This Row],[Cost]]</f>
-        <v>307.17441541959306</v>
+        <v>-606.22068013813623</v>
       </c>
       <c r="K4" s="10">
         <f>ROUND(BenefitsToCost6[[#This Row],[Benefit]]/BenefitsToCost6[[#This Row],[Cost]],2)</f>
-        <v>1.06</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B5" s="5">
-        <v>13909</v>
+        <v>11711.004777835215</v>
       </c>
       <c r="C5" s="5">
         <v>12292.808236134453</v>
@@ -15902,15 +16079,15 @@
   <dimension ref="A2:D16"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="21.81640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
@@ -15918,33 +16095,33 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>62</v>
       </c>
       <c r="D2" t="str">
         <f>"Benefits by Scenario, COC "&amp;B2</f>
-        <v>Benefits by Scenario, COC ALL</v>
+        <v>Benefits by Scenario, COC LOWINC</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D5" t="s">
         <v>18</v>
-      </c>
-      <c r="B5" t="s">
-        <v>68</v>
-      </c>
-      <c r="C5" t="s">
-        <v>69</v>
-      </c>
-      <c r="D5" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
@@ -15952,13 +16129,13 @@
         <v>8</v>
       </c>
       <c r="B6" s="5">
-        <v>600</v>
+        <v>252.59195005755726</v>
       </c>
       <c r="C6" s="5">
-        <v>500</v>
+        <v>218.91302338321628</v>
       </c>
       <c r="D6" s="5">
-        <v>1100</v>
+        <v>471.50497344077354</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
@@ -15966,13 +16143,13 @@
         <v>7</v>
       </c>
       <c r="B7" s="5">
-        <v>111</v>
+        <v>55.570229012662594</v>
       </c>
       <c r="C7" s="5">
-        <v>80</v>
+        <v>42.098658342926207</v>
       </c>
       <c r="D7" s="5">
-        <v>191</v>
+        <v>97.668887355588794</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
@@ -15980,13 +16157,13 @@
         <v>9</v>
       </c>
       <c r="B8" s="5">
-        <v>213</v>
+        <v>93.459021521296179</v>
       </c>
       <c r="C8" s="5">
-        <v>200</v>
+        <v>84.197316685852414</v>
       </c>
       <c r="D8" s="5">
-        <v>413</v>
+        <v>177.65633820714859</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
@@ -15994,13 +16171,13 @@
         <v>3</v>
       </c>
       <c r="B9" s="5">
-        <v>600</v>
+        <v>168.39463337170483</v>
       </c>
       <c r="C9" s="5">
-        <v>500</v>
+        <v>126.29597502877863</v>
       </c>
       <c r="D9" s="5">
-        <v>1100</v>
+        <v>294.69060840048348</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
@@ -16008,13 +16185,13 @@
         <v>4</v>
       </c>
       <c r="B10" s="5">
-        <v>300</v>
+        <v>168.39463337170483</v>
       </c>
       <c r="C10" s="5">
-        <v>200</v>
+        <v>84.197316685852414</v>
       </c>
       <c r="D10" s="5">
-        <v>500</v>
+        <v>252.59195005755726</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
@@ -16022,13 +16199,13 @@
         <v>5</v>
       </c>
       <c r="B11" s="5">
-        <v>700</v>
+        <v>336.78926674340966</v>
       </c>
       <c r="C11" s="5">
-        <v>400</v>
+        <v>210.49329171463106</v>
       </c>
       <c r="D11" s="5">
-        <v>1100</v>
+        <v>547.28255845804074</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
@@ -16036,69 +16213,69 @@
         <v>6</v>
       </c>
       <c r="B12" s="5">
-        <v>340</v>
+        <v>117.87624336019339</v>
       </c>
       <c r="C12" s="5">
-        <v>320</v>
+        <v>126.29597502877863</v>
       </c>
       <c r="D12" s="5">
-        <v>660</v>
+        <v>244.172218388972</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B13" s="5">
-        <v>300</v>
+        <v>168.39463337170483</v>
       </c>
       <c r="C13" s="5">
         <v>0</v>
       </c>
       <c r="D13" s="5">
-        <v>300</v>
+        <v>168.39463337170483</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B14" s="5">
-        <v>676</v>
+        <v>336.78926674340966</v>
       </c>
       <c r="C14" s="5">
-        <v>600</v>
+        <v>336.78926674340966</v>
       </c>
       <c r="D14" s="5">
-        <v>1276</v>
+        <v>673.57853348681931</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B15" s="5">
-        <v>222</v>
+        <v>101.0367800230229</v>
       </c>
       <c r="C15" s="5">
-        <v>90</v>
+        <v>37.888792508633585</v>
       </c>
       <c r="D15" s="5">
-        <v>312</v>
+        <v>138.92557253165648</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B16" s="5">
-        <v>4062</v>
+        <v>1799.2966575766661</v>
       </c>
       <c r="C16" s="5">
-        <v>2890</v>
+        <v>1267.1696161220787</v>
       </c>
       <c r="D16" s="5">
-        <v>6952</v>
+        <v>3066.4662736987452</v>
       </c>
     </row>
   </sheetData>
@@ -16112,7 +16289,7 @@
   <dimension ref="A1:G61"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -16143,10 +16320,10 @@
         <v>12</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F1" s="13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G1" s="16" t="s">
         <v>11</v>
@@ -16154,13 +16331,13 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D2" t="s">
         <v>13</v>
@@ -16178,10 +16355,10 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C3" t="s">
         <v>3</v>
@@ -16202,10 +16379,10 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C4" t="s">
         <v>4</v>
@@ -16226,10 +16403,10 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>
@@ -16250,10 +16427,10 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C6" t="s">
         <v>6</v>
@@ -16274,13 +16451,13 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D7" t="s">
         <v>15</v>
@@ -16298,10 +16475,10 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C8" t="s">
         <v>7</v>
@@ -16322,13 +16499,13 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D9" t="s">
         <v>15</v>
@@ -16346,10 +16523,10 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C10" t="s">
         <v>8</v>
@@ -16370,10 +16547,10 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C11" t="s">
         <v>9</v>
@@ -16394,13 +16571,13 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D12" t="s">
         <v>13</v>
@@ -16418,10 +16595,10 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B13" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C13" t="s">
         <v>3</v>
@@ -16442,10 +16619,10 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C14" t="s">
         <v>4</v>
@@ -16466,10 +16643,10 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C15" t="s">
         <v>5</v>
@@ -16490,10 +16667,10 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C16" t="s">
         <v>6</v>
@@ -16514,13 +16691,13 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B17" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C17" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D17" t="s">
         <v>15</v>
@@ -16538,10 +16715,10 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B18" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C18" t="s">
         <v>7</v>
@@ -16562,13 +16739,13 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B19" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C19" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D19" t="s">
         <v>15</v>
@@ -16586,10 +16763,10 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B20" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C20" t="s">
         <v>8</v>
@@ -16610,10 +16787,10 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B21" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C21" t="s">
         <v>9</v>
@@ -16634,13 +16811,13 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B22" t="s">
+        <v>63</v>
+      </c>
+      <c r="C22" t="s">
         <v>64</v>
-      </c>
-      <c r="C22" t="s">
-        <v>65</v>
       </c>
       <c r="D22" t="s">
         <v>13</v>
@@ -16658,10 +16835,10 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B23" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C23" t="s">
         <v>3</v>
@@ -16682,10 +16859,10 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B24" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C24" t="s">
         <v>4</v>
@@ -16706,10 +16883,10 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C25" t="s">
         <v>5</v>
@@ -16730,10 +16907,10 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B26" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C26" t="s">
         <v>6</v>
@@ -16754,13 +16931,13 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B27" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C27" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D27" t="s">
         <v>15</v>
@@ -16778,10 +16955,10 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B28" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C28" t="s">
         <v>7</v>
@@ -16802,13 +16979,13 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B29" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C29" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D29" t="s">
         <v>15</v>
@@ -16826,10 +17003,10 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B30" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C30" t="s">
         <v>8</v>
@@ -16850,10 +17027,10 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B31" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C31" t="s">
         <v>9</v>
@@ -16874,13 +17051,13 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B32" t="s">
+        <v>63</v>
+      </c>
+      <c r="C32" t="s">
         <v>64</v>
-      </c>
-      <c r="C32" t="s">
-        <v>65</v>
       </c>
       <c r="D32" t="s">
         <v>13</v>
@@ -16898,10 +17075,10 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B33" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C33" t="s">
         <v>3</v>
@@ -16922,10 +17099,10 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B34" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C34" t="s">
         <v>4</v>
@@ -16946,10 +17123,10 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B35" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C35" t="s">
         <v>5</v>
@@ -16970,10 +17147,10 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B36" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C36" t="s">
         <v>6</v>
@@ -16994,13 +17171,13 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B37" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C37" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D37" t="s">
         <v>15</v>
@@ -17018,10 +17195,10 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B38" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C38" t="s">
         <v>7</v>
@@ -17042,13 +17219,13 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B39" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C39" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D39" t="s">
         <v>15</v>
@@ -17066,10 +17243,10 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B40" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C40" t="s">
         <v>8</v>
@@ -17090,10 +17267,10 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B41" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C41" t="s">
         <v>9</v>
@@ -17114,13 +17291,13 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B42" t="s">
-        <v>17</v>
+        <v>91</v>
       </c>
       <c r="C42" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D42" t="s">
         <v>13</v>
@@ -17138,10 +17315,10 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B43" t="s">
-        <v>17</v>
+        <v>91</v>
       </c>
       <c r="C43" t="s">
         <v>3</v>
@@ -17162,10 +17339,10 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B44" t="s">
-        <v>17</v>
+        <v>91</v>
       </c>
       <c r="C44" t="s">
         <v>4</v>
@@ -17186,10 +17363,10 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B45" t="s">
-        <v>17</v>
+        <v>91</v>
       </c>
       <c r="C45" t="s">
         <v>5</v>
@@ -17210,10 +17387,10 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B46" t="s">
-        <v>17</v>
+        <v>91</v>
       </c>
       <c r="C46" t="s">
         <v>6</v>
@@ -17234,13 +17411,13 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B47" t="s">
-        <v>17</v>
+        <v>91</v>
       </c>
       <c r="C47" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D47" t="s">
         <v>15</v>
@@ -17258,10 +17435,10 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B48" t="s">
-        <v>17</v>
+        <v>91</v>
       </c>
       <c r="C48" t="s">
         <v>7</v>
@@ -17282,13 +17459,13 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B49" t="s">
-        <v>17</v>
+        <v>91</v>
       </c>
       <c r="C49" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D49" t="s">
         <v>15</v>
@@ -17306,10 +17483,10 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B50" t="s">
-        <v>17</v>
+        <v>91</v>
       </c>
       <c r="C50" t="s">
         <v>8</v>
@@ -17330,10 +17507,10 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B51" t="s">
-        <v>17</v>
+        <v>91</v>
       </c>
       <c r="C51" t="s">
         <v>9</v>
@@ -17354,13 +17531,13 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B52" t="s">
-        <v>17</v>
+        <v>91</v>
       </c>
       <c r="C52" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D52" t="s">
         <v>13</v>
@@ -17378,10 +17555,10 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B53" t="s">
-        <v>17</v>
+        <v>91</v>
       </c>
       <c r="C53" t="s">
         <v>3</v>
@@ -17402,10 +17579,10 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B54" t="s">
-        <v>17</v>
+        <v>91</v>
       </c>
       <c r="C54" t="s">
         <v>4</v>
@@ -17426,10 +17603,10 @@
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B55" t="s">
-        <v>17</v>
+        <v>91</v>
       </c>
       <c r="C55" t="s">
         <v>5</v>
@@ -17450,10 +17627,10 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B56" t="s">
-        <v>17</v>
+        <v>91</v>
       </c>
       <c r="C56" t="s">
         <v>6</v>
@@ -17474,13 +17651,13 @@
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B57" t="s">
-        <v>17</v>
+        <v>91</v>
       </c>
       <c r="C57" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D57" t="s">
         <v>15</v>
@@ -17498,10 +17675,10 @@
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B58" t="s">
-        <v>17</v>
+        <v>91</v>
       </c>
       <c r="C58" t="s">
         <v>7</v>
@@ -17522,13 +17699,13 @@
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B59" t="s">
-        <v>17</v>
+        <v>91</v>
       </c>
       <c r="C59" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D59" t="s">
         <v>15</v>
@@ -17546,10 +17723,10 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B60" t="s">
-        <v>17</v>
+        <v>91</v>
       </c>
       <c r="C60" t="s">
         <v>8</v>
@@ -17570,10 +17747,10 @@
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B61" t="s">
-        <v>17</v>
+        <v>91</v>
       </c>
       <c r="C61" t="s">
         <v>9</v>
@@ -17631,13 +17808,13 @@
         <v>12</v>
       </c>
       <c r="D1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F1" s="14" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G1" s="16" t="s">
         <v>11</v>
@@ -17645,10 +17822,10 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C2" t="s">
         <v>16</v>
@@ -17669,13 +17846,13 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D3">
         <v>3</v>
@@ -17693,13 +17870,13 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D4">
         <v>3</v>
@@ -17717,10 +17894,10 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
         <v>16</v>
@@ -17741,13 +17918,13 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D6">
         <v>4</v>
@@ -17765,13 +17942,13 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D7">
         <v>4</v>
@@ -17819,8 +17996,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N5"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -17830,7 +18007,7 @@
     <col min="4" max="4" width="12.36328125" customWidth="1"/>
     <col min="5" max="5" width="14.6328125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.36328125" customWidth="1"/>
-    <col min="8" max="8" width="25.36328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="25.36328125" customWidth="1"/>
     <col min="9" max="9" width="9.6328125" customWidth="1"/>
     <col min="10" max="10" width="10.1796875" bestFit="1" customWidth="1"/>
     <col min="11" max="12" width="10.1796875" customWidth="1"/>
@@ -17840,65 +18017,65 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" t="s">
         <v>27</v>
       </c>
-      <c r="D1" t="s">
-        <v>28</v>
-      </c>
       <c r="G1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H2" t="s">
+        <v>88</v>
+      </c>
+      <c r="J2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K2" t="s">
+        <v>53</v>
+      </c>
+      <c r="L2" t="s">
+        <v>54</v>
+      </c>
+      <c r="M2" t="s">
         <v>89</v>
       </c>
-      <c r="J2" t="s">
-        <v>36</v>
-      </c>
-      <c r="K2" t="s">
-        <v>54</v>
-      </c>
-      <c r="L2" t="s">
-        <v>55</v>
-      </c>
-      <c r="M2" t="s">
-        <v>90</v>
-      </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B3" s="5">
-        <v>8129</v>
+        <v>6844.3998733929438</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E3" s="5">
         <v>6819.9826515540462</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H3" s="5">
         <v>3</v>
@@ -17909,7 +18086,7 @@
       </c>
       <c r="K3">
         <f t="shared" ref="K3:K4" si="0">GETPIVOTDATA("Sum of DOLLARS",$A$2,"SCENARIO",A3)</f>
-        <v>8129</v>
+        <v>6844.3998733929438</v>
       </c>
       <c r="L3">
         <f t="shared" ref="L3:L4" si="1">GETPIVOTDATA("Sum of DOLLARS",$D$2,"SCENARIO",A3)</f>
@@ -17921,24 +18098,24 @@
       </c>
       <c r="N3" s="12">
         <f t="shared" ref="N3:N4" si="3">GETPIVOTDATA("DOLLARS",$A$2,"SCENARIO",J3)/GETPIVOTDATA("DOLLARS",$D$2,"SCENARIO",J3)</f>
-        <v>1.1919385158769682</v>
+        <v>1.0035802469135804</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B4" s="5">
-        <v>5780</v>
+        <v>4866.6049044422707</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E4" s="5">
         <v>5472.8255845804069</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H4" s="5">
         <v>4</v>
@@ -17949,7 +18126,7 @@
       </c>
       <c r="K4">
         <f t="shared" si="0"/>
-        <v>5780</v>
+        <v>4866.6049044422707</v>
       </c>
       <c r="L4">
         <f t="shared" si="1"/>
@@ -17961,24 +18138,24 @@
       </c>
       <c r="N4" s="12">
         <f t="shared" si="3"/>
-        <v>1.0561272071752208</v>
+        <v>0.88923076923076949</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B5" s="5">
-        <v>13909</v>
+        <v>11711.004777835215</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E5" s="5">
         <v>12292.808236134453</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H5" s="5">
         <v>3.5</v>
@@ -18003,7 +18180,7 @@
   <dimension ref="A3:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -18015,29 +18192,29 @@
   <sheetData>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D4" t="s">
         <v>18</v>
-      </c>
-      <c r="B4" t="s">
-        <v>68</v>
-      </c>
-      <c r="C4" t="s">
-        <v>69</v>
-      </c>
-      <c r="D4" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B5" s="5">
         <v>5893.8121680096692</v>
@@ -18051,7 +18228,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B6" s="5">
         <v>926.17048354437668</v>
@@ -18065,7 +18242,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B7" s="5">
         <v>6819.9826515540462</v>
@@ -18104,32 +18281,32 @@
   <sheetData>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B4" t="s">
         <v>16</v>
       </c>
       <c r="C4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D4" t="s">
         <v>76</v>
       </c>
-      <c r="D4" t="s">
-        <v>77</v>
-      </c>
       <c r="E4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B5" s="5">
         <v>5893.8121680096692</v>
@@ -18146,7 +18323,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B6" s="5">
         <v>5051.8390011511447</v>
@@ -18163,7 +18340,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B7" s="5">
         <v>10945.651169160814</v>
@@ -18189,14 +18366,15 @@
   <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="26.54296875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="25.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -18205,7 +18383,7 @@
         <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E1" t="str">
         <f>"Benefits by COC, Scenario "&amp;BenefitsPerScenario!B1</f>
@@ -18214,21 +18392,21 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C4" t="s">
         <v>18</v>
-      </c>
-      <c r="B4" t="s">
-        <v>63</v>
-      </c>
-      <c r="C4" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
@@ -18236,10 +18414,10 @@
         <v>14</v>
       </c>
       <c r="B5" s="5">
-        <v>940</v>
+        <v>791.45477684701268</v>
       </c>
       <c r="C5" s="5">
-        <v>940</v>
+        <v>791.45477684701268</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
@@ -18247,10 +18425,10 @@
         <v>3</v>
       </c>
       <c r="B6" s="5">
-        <v>200</v>
+        <v>168.39463337170483</v>
       </c>
       <c r="C6" s="5">
-        <v>200</v>
+        <v>168.39463337170483</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
@@ -18258,10 +18436,10 @@
         <v>4</v>
       </c>
       <c r="B7" s="5">
-        <v>200</v>
+        <v>168.39463337170483</v>
       </c>
       <c r="C7" s="5">
-        <v>200</v>
+        <v>168.39463337170483</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
@@ -18269,10 +18447,10 @@
         <v>5</v>
       </c>
       <c r="B8" s="5">
-        <v>400</v>
+        <v>336.78926674340966</v>
       </c>
       <c r="C8" s="5">
-        <v>400</v>
+        <v>336.78926674340966</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
@@ -18280,10 +18458,10 @@
         <v>6</v>
       </c>
       <c r="B9" s="5">
-        <v>140</v>
+        <v>117.87624336019339</v>
       </c>
       <c r="C9" s="5">
-        <v>140</v>
+        <v>117.87624336019339</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
@@ -18291,10 +18469,10 @@
         <v>15</v>
       </c>
       <c r="B10" s="5">
-        <v>586</v>
+        <v>493.39627577909516</v>
       </c>
       <c r="C10" s="5">
-        <v>586</v>
+        <v>493.39627577909516</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
@@ -18302,32 +18480,32 @@
         <v>7</v>
       </c>
       <c r="B11" s="5">
-        <v>66</v>
+        <v>55.570229012662594</v>
       </c>
       <c r="C11" s="5">
-        <v>66</v>
+        <v>55.570229012662594</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B12" s="5">
-        <v>400</v>
+        <v>336.78926674340966</v>
       </c>
       <c r="C12" s="5">
-        <v>400</v>
+        <v>336.78926674340966</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B13" s="5">
-        <v>120</v>
+        <v>101.0367800230229</v>
       </c>
       <c r="C13" s="5">
-        <v>120</v>
+        <v>101.0367800230229</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
@@ -18335,10 +18513,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="5">
-        <v>611</v>
+        <v>514.44560495055828</v>
       </c>
       <c r="C14" s="5">
-        <v>611</v>
+        <v>514.44560495055828</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
@@ -18346,10 +18524,10 @@
         <v>8</v>
       </c>
       <c r="B15" s="5">
-        <v>300</v>
+        <v>252.59195005755726</v>
       </c>
       <c r="C15" s="5">
-        <v>300</v>
+        <v>252.59195005755726</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
@@ -18357,32 +18535,32 @@
         <v>9</v>
       </c>
       <c r="B16" s="5">
-        <v>111</v>
+        <v>93.459021521296179</v>
       </c>
       <c r="C16" s="5">
-        <v>111</v>
+        <v>93.459021521296179</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B17" s="5">
-        <v>200</v>
+        <v>168.39463337170483</v>
       </c>
       <c r="C17" s="5">
-        <v>200</v>
+        <v>168.39463337170483</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B18" s="5">
-        <v>2137</v>
+        <v>1799.2966575766659</v>
       </c>
       <c r="C18" s="5">
-        <v>2137</v>
+        <v>1799.2966575766659</v>
       </c>
     </row>
   </sheetData>
@@ -18396,16 +18574,16 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="24" customWidth="1"/>
+    <col min="1" max="1" width="24" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.08984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="33.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.36328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.26953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="36.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
@@ -18413,7 +18591,7 @@
         <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E1" t="str">
         <f>"Benefits by Type and COC, Scenario "&amp;TotalBenefitsPerScenario!B1</f>
@@ -18422,21 +18600,27 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D4" t="s">
+        <v>91</v>
+      </c>
+      <c r="E4" t="s">
         <v>18</v>
-      </c>
-      <c r="B4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
@@ -18444,10 +18628,16 @@
         <v>14</v>
       </c>
       <c r="B5" s="5">
-        <v>1940</v>
+        <v>791.45477684701268</v>
       </c>
       <c r="C5" s="5">
-        <v>1940</v>
+        <v>841.97316685852411</v>
+      </c>
+      <c r="D5" s="5">
+        <v>1633.4279437055368</v>
+      </c>
+      <c r="E5" s="5">
+        <v>3266.8558874110736</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
@@ -18455,10 +18645,16 @@
         <v>15</v>
       </c>
       <c r="B6" s="5">
-        <v>1009</v>
+        <v>493.39627577909516</v>
       </c>
       <c r="C6" s="5">
-        <v>1009</v>
+        <v>360.36451541544835</v>
+      </c>
+      <c r="D6" s="5">
+        <v>849.55092536025086</v>
+      </c>
+      <c r="E6" s="5">
+        <v>1703.3117165547944</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
@@ -18466,21 +18662,33 @@
         <v>13</v>
       </c>
       <c r="B7" s="5">
-        <v>1113</v>
+        <v>514.44560495055828</v>
       </c>
       <c r="C7" s="5">
-        <v>1113</v>
+        <v>422.67052976297913</v>
+      </c>
+      <c r="D7" s="5">
+        <v>937.11613471353746</v>
+      </c>
+      <c r="E7" s="5">
+        <v>1874.2322694270747</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B8" s="5">
-        <v>4062</v>
+        <v>1799.2966575766663</v>
       </c>
       <c r="C8" s="5">
-        <v>4062</v>
+        <v>1625.0082120369516</v>
+      </c>
+      <c r="D8" s="5">
+        <v>3420.0950037793255</v>
+      </c>
+      <c r="E8" s="5">
+        <v>6844.399873392942</v>
       </c>
     </row>
   </sheetData>
@@ -18494,7 +18702,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -18522,26 +18730,26 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B5" s="5">
-        <v>3880</v>
+        <v>3266.855887411074</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
-        <v>17</v>
+        <v>62</v>
       </c>
       <c r="B6" s="5">
-        <v>1940</v>
+        <v>791.45477684701268</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
@@ -18549,31 +18757,31 @@
         <v>63</v>
       </c>
       <c r="B7" s="5">
-        <v>940</v>
+        <v>841.97316685852422</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
-        <v>64</v>
+        <v>91</v>
       </c>
       <c r="B8" s="5">
-        <v>1000</v>
+        <v>1633.4279437055368</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B9" s="5">
-        <v>2840</v>
+        <v>2391.2037938782087</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="4" t="s">
-        <v>17</v>
+        <v>62</v>
       </c>
       <c r="B10" s="5">
-        <v>1420</v>
+        <v>547.28255845804074</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
@@ -18581,23 +18789,23 @@
         <v>63</v>
       </c>
       <c r="B11" s="5">
-        <v>650</v>
+        <v>648.3193384810636</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="4" t="s">
-        <v>64</v>
+        <v>91</v>
       </c>
       <c r="B12" s="5">
-        <v>770</v>
+        <v>1195.6018969391043</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B13" s="5">
-        <v>6720</v>
+        <v>5658.0596812892827</v>
       </c>
     </row>
   </sheetData>
